--- a/Natalidad.xlsx
+++ b/Natalidad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Desktop\Proyecto Samsung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F42967AF-0739-4303-954B-6A79C4EE91A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65937C7C-EFBD-4491-85E7-136C9DC43FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="14399" windowHeight="9172" xr2:uid="{BFDBD537-FBFB-4163-8BFC-35350F06266F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{BFDBD537-FBFB-4163-8BFC-35350F06266F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Fecha</t>
   </si>
@@ -47,364 +47,187 @@
     <t>Índice de Fecund.</t>
   </si>
   <si>
-    <t>18,43‰</t>
-  </si>
-  <si>
-    <t>2,27</t>
-  </si>
-  <si>
-    <t>18,78‰</t>
-  </si>
-  <si>
-    <t>2,30</t>
-  </si>
-  <si>
-    <t>19,29‰</t>
-  </si>
-  <si>
-    <t>2,34</t>
-  </si>
-  <si>
-    <t>19,76‰</t>
-  </si>
-  <si>
-    <t>2,38</t>
-  </si>
-  <si>
-    <t>19,99‰</t>
-  </si>
-  <si>
-    <t>2,39</t>
-  </si>
-  <si>
-    <t>20,26‰</t>
-  </si>
-  <si>
-    <t>2,41</t>
-  </si>
-  <si>
-    <t>20,60‰</t>
-  </si>
-  <si>
-    <t>2,43</t>
-  </si>
-  <si>
-    <t>20,87‰</t>
-  </si>
-  <si>
-    <t>2,45</t>
-  </si>
-  <si>
-    <t>21,17‰</t>
-  </si>
-  <si>
-    <t>2,47</t>
-  </si>
-  <si>
-    <t>21,45‰</t>
-  </si>
-  <si>
-    <t>2,49</t>
-  </si>
-  <si>
-    <t>21,79‰</t>
-  </si>
-  <si>
-    <t>2,51</t>
-  </si>
-  <si>
-    <t>22,04‰</t>
-  </si>
-  <si>
-    <t>2,54</t>
-  </si>
-  <si>
-    <t>22,13‰</t>
-  </si>
-  <si>
-    <t>2,56</t>
-  </si>
-  <si>
-    <t>21,95‰</t>
-  </si>
-  <si>
-    <t>2,53</t>
-  </si>
-  <si>
-    <t>21,71‰</t>
-  </si>
-  <si>
-    <t>21,87‰</t>
-  </si>
-  <si>
-    <t>22,49‰</t>
-  </si>
-  <si>
-    <t>2,61</t>
-  </si>
-  <si>
-    <t>22,97‰</t>
-  </si>
-  <si>
-    <t>2,66</t>
-  </si>
-  <si>
-    <t>23,43‰</t>
-  </si>
-  <si>
-    <t>2,72</t>
-  </si>
-  <si>
-    <t>23,87‰</t>
-  </si>
-  <si>
-    <t>2,77</t>
-  </si>
-  <si>
-    <t>24,32‰</t>
-  </si>
-  <si>
-    <t>2,81</t>
-  </si>
-  <si>
-    <t>24,84‰</t>
-  </si>
-  <si>
-    <t>2,86</t>
-  </si>
-  <si>
-    <t>25,01‰</t>
-  </si>
-  <si>
-    <t>2,87</t>
-  </si>
-  <si>
-    <t>25,22‰</t>
-  </si>
-  <si>
-    <t>26,08‰</t>
-  </si>
-  <si>
-    <t>2,95</t>
-  </si>
-  <si>
-    <t>27,03‰</t>
-  </si>
-  <si>
-    <t>3,04</t>
-  </si>
-  <si>
-    <t>27,78‰</t>
-  </si>
-  <si>
-    <t>3,10</t>
-  </si>
-  <si>
-    <t>28,61‰</t>
-  </si>
-  <si>
-    <t>3,16</t>
-  </si>
-  <si>
-    <t>29,25‰</t>
-  </si>
-  <si>
-    <t>3,23</t>
-  </si>
-  <si>
-    <t>29,80‰</t>
-  </si>
-  <si>
-    <t>3,29</t>
-  </si>
-  <si>
-    <t>30,37‰</t>
-  </si>
-  <si>
-    <t>3,35</t>
-  </si>
-  <si>
-    <t>30,89‰</t>
-  </si>
-  <si>
-    <t>3,41</t>
-  </si>
-  <si>
-    <t>31,29‰</t>
-  </si>
-  <si>
-    <t>3,48</t>
-  </si>
-  <si>
-    <t>3,50</t>
-  </si>
-  <si>
-    <t>31,33‰</t>
-  </si>
-  <si>
-    <t>3,53</t>
-  </si>
-  <si>
-    <t>31,62‰</t>
-  </si>
-  <si>
-    <t>3,60</t>
-  </si>
-  <si>
-    <t>31,97‰</t>
-  </si>
-  <si>
-    <t>3,69</t>
-  </si>
-  <si>
-    <t>32,62‰</t>
-  </si>
-  <si>
-    <t>3,82</t>
-  </si>
-  <si>
-    <t>33,09‰</t>
-  </si>
-  <si>
-    <t>3,95</t>
-  </si>
-  <si>
-    <t>33,18‰</t>
-  </si>
-  <si>
-    <t>4,01</t>
-  </si>
-  <si>
-    <t>33,65‰</t>
-  </si>
-  <si>
-    <t>4,15</t>
-  </si>
-  <si>
-    <t>34,26‰</t>
-  </si>
-  <si>
-    <t>4,30</t>
-  </si>
-  <si>
-    <t>34,88‰</t>
-  </si>
-  <si>
-    <t>4,47</t>
-  </si>
-  <si>
-    <t>35,41‰</t>
-  </si>
-  <si>
-    <t>4,64</t>
-  </si>
-  <si>
-    <t>36,11‰</t>
-  </si>
-  <si>
-    <t>4,84</t>
-  </si>
-  <si>
-    <t>36,87‰</t>
-  </si>
-  <si>
-    <t>5,05</t>
-  </si>
-  <si>
-    <t>37,55‰</t>
-  </si>
-  <si>
-    <t>5,24</t>
-  </si>
-  <si>
-    <t>38,50‰</t>
-  </si>
-  <si>
-    <t>5,44</t>
-  </si>
-  <si>
-    <t>39,61‰</t>
-  </si>
-  <si>
-    <t>5,67</t>
-  </si>
-  <si>
-    <t>40,36‰</t>
-  </si>
-  <si>
-    <t>5,84</t>
-  </si>
-  <si>
-    <t>41,18‰</t>
-  </si>
-  <si>
-    <t>6,01</t>
-  </si>
-  <si>
-    <t>42,06‰</t>
-  </si>
-  <si>
-    <t>6,18</t>
-  </si>
-  <si>
-    <t>42,92‰</t>
-  </si>
-  <si>
-    <t>6,37</t>
-  </si>
-  <si>
-    <t>43,98‰</t>
-  </si>
-  <si>
-    <t>6,55</t>
-  </si>
-  <si>
-    <t>45,41‰</t>
-  </si>
-  <si>
-    <t>6,76</t>
-  </si>
-  <si>
-    <t>46,69‰</t>
-  </si>
-  <si>
-    <t>6,95</t>
-  </si>
-  <si>
-    <t>47,44‰</t>
-  </si>
-  <si>
-    <t>7,05</t>
-  </si>
-  <si>
-    <t>48,47‰</t>
-  </si>
-  <si>
-    <t>7,19</t>
-  </si>
-  <si>
-    <t>49,47‰</t>
-  </si>
-  <si>
-    <t>7,30</t>
-  </si>
-  <si>
-    <t>50,46‰</t>
-  </si>
-  <si>
-    <t>7,40</t>
-  </si>
-  <si>
-    <t>51,39‰</t>
-  </si>
-  <si>
-    <t>7,49</t>
-  </si>
-  <si>
-    <t>52,23‰</t>
-  </si>
-  <si>
-    <t>7,56</t>
+    <t>18.43‰</t>
+  </si>
+  <si>
+    <t>18.78‰</t>
+  </si>
+  <si>
+    <t>19.29‰</t>
+  </si>
+  <si>
+    <t>19.76‰</t>
+  </si>
+  <si>
+    <t>19.99‰</t>
+  </si>
+  <si>
+    <t>20.26‰</t>
+  </si>
+  <si>
+    <t>20.60‰</t>
+  </si>
+  <si>
+    <t>20.87‰</t>
+  </si>
+  <si>
+    <t>21.17‰</t>
+  </si>
+  <si>
+    <t>21.45‰</t>
+  </si>
+  <si>
+    <t>21.79‰</t>
+  </si>
+  <si>
+    <t>22.04‰</t>
+  </si>
+  <si>
+    <t>22.13‰</t>
+  </si>
+  <si>
+    <t>21.95‰</t>
+  </si>
+  <si>
+    <t>21.71‰</t>
+  </si>
+  <si>
+    <t>21.87‰</t>
+  </si>
+  <si>
+    <t>22.49‰</t>
+  </si>
+  <si>
+    <t>22.97‰</t>
+  </si>
+  <si>
+    <t>23.43‰</t>
+  </si>
+  <si>
+    <t>23.87‰</t>
+  </si>
+  <si>
+    <t>24.32‰</t>
+  </si>
+  <si>
+    <t>24.84‰</t>
+  </si>
+  <si>
+    <t>25.01‰</t>
+  </si>
+  <si>
+    <t>25.22‰</t>
+  </si>
+  <si>
+    <t>26.08‰</t>
+  </si>
+  <si>
+    <t>27.03‰</t>
+  </si>
+  <si>
+    <t>27.78‰</t>
+  </si>
+  <si>
+    <t>28.61‰</t>
+  </si>
+  <si>
+    <t>29.25‰</t>
+  </si>
+  <si>
+    <t>29.80‰</t>
+  </si>
+  <si>
+    <t>30.37‰</t>
+  </si>
+  <si>
+    <t>30.89‰</t>
+  </si>
+  <si>
+    <t>31.29‰</t>
+  </si>
+  <si>
+    <t>31.33‰</t>
+  </si>
+  <si>
+    <t>31.62‰</t>
+  </si>
+  <si>
+    <t>31.97‰</t>
+  </si>
+  <si>
+    <t>32.62‰</t>
+  </si>
+  <si>
+    <t>33.09‰</t>
+  </si>
+  <si>
+    <t>33.18‰</t>
+  </si>
+  <si>
+    <t>33.65‰</t>
+  </si>
+  <si>
+    <t>34.26‰</t>
+  </si>
+  <si>
+    <t>34.88‰</t>
+  </si>
+  <si>
+    <t>35.41‰</t>
+  </si>
+  <si>
+    <t>36.11‰</t>
+  </si>
+  <si>
+    <t>36.87‰</t>
+  </si>
+  <si>
+    <t>37.55‰</t>
+  </si>
+  <si>
+    <t>38.50‰</t>
+  </si>
+  <si>
+    <t>39.61‰</t>
+  </si>
+  <si>
+    <t>40.36‰</t>
+  </si>
+  <si>
+    <t>41.18‰</t>
+  </si>
+  <si>
+    <t>42.06‰</t>
+  </si>
+  <si>
+    <t>42.92‰</t>
+  </si>
+  <si>
+    <t>43.98‰</t>
+  </si>
+  <si>
+    <t>45.41‰</t>
+  </si>
+  <si>
+    <t>46.69‰</t>
+  </si>
+  <si>
+    <t>47.44‰</t>
+  </si>
+  <si>
+    <t>48.47‰</t>
+  </si>
+  <si>
+    <t>49.47‰</t>
+  </si>
+  <si>
+    <t>50.46‰</t>
+  </si>
+  <si>
+    <t>51.39‰</t>
+  </si>
+  <si>
+    <t>52.23‰</t>
   </si>
 </sst>
 </file>
@@ -805,8 +628,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="C2" s="1">
+        <v>2.27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -814,10 +637,10 @@
         <v>2020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -825,10 +648,10 @@
         <v>2019</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -836,10 +659,10 @@
         <v>2018</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -847,10 +670,10 @@
         <v>2017</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -858,10 +681,10 @@
         <v>2016</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -869,10 +692,10 @@
         <v>2015</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -880,10 +703,10 @@
         <v>2014</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -891,10 +714,10 @@
         <v>2013</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -902,10 +725,10 @@
         <v>2012</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -913,10 +736,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -924,10 +747,10 @@
         <v>2010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -935,10 +758,10 @@
         <v>2009</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.56</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -946,10 +769,10 @@
         <v>2008</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -957,10 +780,10 @@
         <v>2007</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -968,10 +791,10 @@
         <v>2006</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -979,10 +802,10 @@
         <v>2005</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.61</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -990,10 +813,10 @@
         <v>2004</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -1001,10 +824,10 @@
         <v>2003</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -1012,10 +835,10 @@
         <v>2002</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.77</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -1023,10 +846,10 @@
         <v>2001</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.81</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -1034,10 +857,10 @@
         <v>2000</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.86</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -1045,10 +868,10 @@
         <v>1999</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.87</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -1056,10 +879,10 @@
         <v>1998</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.87</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -1067,10 +890,10 @@
         <v>1997</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.95</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -1078,10 +901,10 @@
         <v>1996</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3.04</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -1089,10 +912,10 @@
         <v>1995</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -1100,10 +923,10 @@
         <v>1994</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3.16</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -1111,10 +934,10 @@
         <v>1993</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3.23</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -1122,10 +945,10 @@
         <v>1992</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3.29</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -1133,10 +956,10 @@
         <v>1991</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3.35</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -1144,10 +967,10 @@
         <v>1990</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3.41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
@@ -1155,10 +978,10 @@
         <v>1989</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3.48</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
@@ -1166,10 +989,10 @@
         <v>1988</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>35</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3.5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
@@ -1177,10 +1000,10 @@
         <v>1987</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3.53</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
@@ -1188,10 +1011,10 @@
         <v>1986</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3.6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -1199,10 +1022,10 @@
         <v>1985</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3.69</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -1210,10 +1033,10 @@
         <v>1984</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3.82</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -1221,10 +1044,10 @@
         <v>1983</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3.95</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -1232,10 +1055,10 @@
         <v>1982</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4.01</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -1243,10 +1066,10 @@
         <v>1981</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>42</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -1254,10 +1077,10 @@
         <v>1980</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>82</v>
+        <v>43</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4.3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -1265,10 +1088,10 @@
         <v>1979</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>44</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4.47</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -1276,10 +1099,10 @@
         <v>1978</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -1287,10 +1110,10 @@
         <v>1977</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>88</v>
+        <v>46</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4.84</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -1298,10 +1121,10 @@
         <v>1976</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5.05</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -1309,10 +1132,10 @@
         <v>1975</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5.24</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -1320,10 +1143,10 @@
         <v>1974</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>49</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5.44</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -1331,10 +1154,10 @@
         <v>1973</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>96</v>
+        <v>50</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5.67</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -1342,10 +1165,10 @@
         <v>1972</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>51</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5.84</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -1353,10 +1176,10 @@
         <v>1971</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>52</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6.01</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -1364,10 +1187,10 @@
         <v>1970</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
+      </c>
+      <c r="C53" s="1">
+        <v>6.18</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -1375,10 +1198,10 @@
         <v>1969</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
+      </c>
+      <c r="C54" s="1">
+        <v>6.37</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -1386,10 +1209,10 @@
         <v>1968</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>55</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6.55</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -1397,10 +1220,10 @@
         <v>1967</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>108</v>
+        <v>56</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6.76</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -1408,10 +1231,10 @@
         <v>1966</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>110</v>
+        <v>57</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6.95</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -1419,10 +1242,10 @@
         <v>1965</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>112</v>
+        <v>58</v>
+      </c>
+      <c r="C58" s="1">
+        <v>7.05</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -1430,10 +1253,10 @@
         <v>1964</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>114</v>
+        <v>59</v>
+      </c>
+      <c r="C59" s="1">
+        <v>7.19</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -1441,10 +1264,10 @@
         <v>1963</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>116</v>
+        <v>60</v>
+      </c>
+      <c r="C60" s="1">
+        <v>7.3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -1452,10 +1275,10 @@
         <v>1962</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>61</v>
+      </c>
+      <c r="C61" s="1">
+        <v>7.4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -1463,10 +1286,10 @@
         <v>1961</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>120</v>
+        <v>62</v>
+      </c>
+      <c r="C62" s="1">
+        <v>7.49</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -1474,10 +1297,10 @@
         <v>1960</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>122</v>
+        <v>63</v>
+      </c>
+      <c r="C63" s="1">
+        <v>7.56</v>
       </c>
     </row>
   </sheetData>

--- a/Natalidad.xlsx
+++ b/Natalidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Desktop\Proyecto Samsung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65937C7C-EFBD-4491-85E7-136C9DC43FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5831503A-5C49-4ED4-AC63-413C5AEF16BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{BFDBD537-FBFB-4163-8BFC-35350F06266F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Fecha</t>
   </si>
@@ -45,189 +45,6 @@
   </si>
   <si>
     <t>Índice de Fecund.</t>
-  </si>
-  <si>
-    <t>18.43‰</t>
-  </si>
-  <si>
-    <t>18.78‰</t>
-  </si>
-  <si>
-    <t>19.29‰</t>
-  </si>
-  <si>
-    <t>19.76‰</t>
-  </si>
-  <si>
-    <t>19.99‰</t>
-  </si>
-  <si>
-    <t>20.26‰</t>
-  </si>
-  <si>
-    <t>20.60‰</t>
-  </si>
-  <si>
-    <t>20.87‰</t>
-  </si>
-  <si>
-    <t>21.17‰</t>
-  </si>
-  <si>
-    <t>21.45‰</t>
-  </si>
-  <si>
-    <t>21.79‰</t>
-  </si>
-  <si>
-    <t>22.04‰</t>
-  </si>
-  <si>
-    <t>22.13‰</t>
-  </si>
-  <si>
-    <t>21.95‰</t>
-  </si>
-  <si>
-    <t>21.71‰</t>
-  </si>
-  <si>
-    <t>21.87‰</t>
-  </si>
-  <si>
-    <t>22.49‰</t>
-  </si>
-  <si>
-    <t>22.97‰</t>
-  </si>
-  <si>
-    <t>23.43‰</t>
-  </si>
-  <si>
-    <t>23.87‰</t>
-  </si>
-  <si>
-    <t>24.32‰</t>
-  </si>
-  <si>
-    <t>24.84‰</t>
-  </si>
-  <si>
-    <t>25.01‰</t>
-  </si>
-  <si>
-    <t>25.22‰</t>
-  </si>
-  <si>
-    <t>26.08‰</t>
-  </si>
-  <si>
-    <t>27.03‰</t>
-  </si>
-  <si>
-    <t>27.78‰</t>
-  </si>
-  <si>
-    <t>28.61‰</t>
-  </si>
-  <si>
-    <t>29.25‰</t>
-  </si>
-  <si>
-    <t>29.80‰</t>
-  </si>
-  <si>
-    <t>30.37‰</t>
-  </si>
-  <si>
-    <t>30.89‰</t>
-  </si>
-  <si>
-    <t>31.29‰</t>
-  </si>
-  <si>
-    <t>31.33‰</t>
-  </si>
-  <si>
-    <t>31.62‰</t>
-  </si>
-  <si>
-    <t>31.97‰</t>
-  </si>
-  <si>
-    <t>32.62‰</t>
-  </si>
-  <si>
-    <t>33.09‰</t>
-  </si>
-  <si>
-    <t>33.18‰</t>
-  </si>
-  <si>
-    <t>33.65‰</t>
-  </si>
-  <si>
-    <t>34.26‰</t>
-  </si>
-  <si>
-    <t>34.88‰</t>
-  </si>
-  <si>
-    <t>35.41‰</t>
-  </si>
-  <si>
-    <t>36.11‰</t>
-  </si>
-  <si>
-    <t>36.87‰</t>
-  </si>
-  <si>
-    <t>37.55‰</t>
-  </si>
-  <si>
-    <t>38.50‰</t>
-  </si>
-  <si>
-    <t>39.61‰</t>
-  </si>
-  <si>
-    <t>40.36‰</t>
-  </si>
-  <si>
-    <t>41.18‰</t>
-  </si>
-  <si>
-    <t>42.06‰</t>
-  </si>
-  <si>
-    <t>42.92‰</t>
-  </si>
-  <si>
-    <t>43.98‰</t>
-  </si>
-  <si>
-    <t>45.41‰</t>
-  </si>
-  <si>
-    <t>46.69‰</t>
-  </si>
-  <si>
-    <t>47.44‰</t>
-  </si>
-  <si>
-    <t>48.47‰</t>
-  </si>
-  <si>
-    <t>49.47‰</t>
-  </si>
-  <si>
-    <t>50.46‰</t>
-  </si>
-  <si>
-    <t>51.39‰</t>
-  </si>
-  <si>
-    <t>52.23‰</t>
   </si>
 </sst>
 </file>
@@ -263,9 +80,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,7 +425,7 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C63"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -625,8 +445,8 @@
       <c r="A2" s="1">
         <v>2021</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="2">
+        <v>0.18429999999999999</v>
       </c>
       <c r="C2" s="1">
         <v>2.27</v>
@@ -636,8 +456,8 @@
       <c r="A3" s="1">
         <v>2020</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="2">
+        <v>0.18779999999999999</v>
       </c>
       <c r="C3" s="1">
         <v>2.2999999999999998</v>
@@ -647,8 +467,8 @@
       <c r="A4" s="1">
         <v>2019</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+      <c r="B4" s="2">
+        <v>0.19289999999999999</v>
       </c>
       <c r="C4" s="1">
         <v>2.34</v>
@@ -658,8 +478,8 @@
       <c r="A5" s="1">
         <v>2018</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+      <c r="B5" s="2">
+        <v>0.1976</v>
       </c>
       <c r="C5" s="1">
         <v>2.38</v>
@@ -669,8 +489,8 @@
       <c r="A6" s="1">
         <v>2017</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
+      <c r="B6" s="2">
+        <v>0.19989999999999999</v>
       </c>
       <c r="C6" s="1">
         <v>2.39</v>
@@ -680,8 +500,8 @@
       <c r="A7" s="1">
         <v>2016</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
+      <c r="B7" s="2">
+        <v>0.2026</v>
       </c>
       <c r="C7" s="1">
         <v>2.41</v>
@@ -691,8 +511,8 @@
       <c r="A8" s="1">
         <v>2015</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
+      <c r="B8" s="2">
+        <v>0.20599999999999999</v>
       </c>
       <c r="C8" s="1">
         <v>2.4300000000000002</v>
@@ -702,8 +522,8 @@
       <c r="A9" s="1">
         <v>2014</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
+      <c r="B9" s="2">
+        <v>0.2087</v>
       </c>
       <c r="C9" s="1">
         <v>2.4500000000000002</v>
@@ -713,8 +533,8 @@
       <c r="A10" s="1">
         <v>2013</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
+      <c r="B10" s="2">
+        <v>0.2117</v>
       </c>
       <c r="C10" s="1">
         <v>2.4700000000000002</v>
@@ -724,8 +544,8 @@
       <c r="A11" s="1">
         <v>2012</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
+      <c r="B11" s="2">
+        <v>0.2145</v>
       </c>
       <c r="C11" s="1">
         <v>2.4900000000000002</v>
@@ -735,8 +555,8 @@
       <c r="A12" s="1">
         <v>2011</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
+      <c r="B12" s="2">
+        <v>0.21790000000000001</v>
       </c>
       <c r="C12" s="1">
         <v>2.5099999999999998</v>
@@ -746,8 +566,8 @@
       <c r="A13" s="1">
         <v>2010</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
+      <c r="B13" s="2">
+        <v>0.22040000000000001</v>
       </c>
       <c r="C13" s="1">
         <v>2.54</v>
@@ -757,8 +577,8 @@
       <c r="A14" s="1">
         <v>2009</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
+      <c r="B14" s="2">
+        <v>0.2213</v>
       </c>
       <c r="C14" s="1">
         <v>2.56</v>
@@ -768,8 +588,8 @@
       <c r="A15" s="1">
         <v>2008</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
+      <c r="B15" s="2">
+        <v>0.2195</v>
       </c>
       <c r="C15" s="1">
         <v>2.5299999999999998</v>
@@ -779,8 +599,8 @@
       <c r="A16" s="1">
         <v>2007</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
+      <c r="B16" s="2">
+        <v>0.21709999999999999</v>
       </c>
       <c r="C16" s="1">
         <v>2.5099999999999998</v>
@@ -790,8 +610,8 @@
       <c r="A17" s="1">
         <v>2006</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
+      <c r="B17" s="2">
+        <v>0.21870000000000001</v>
       </c>
       <c r="C17" s="1">
         <v>2.5299999999999998</v>
@@ -801,8 +621,8 @@
       <c r="A18" s="1">
         <v>2005</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
+      <c r="B18" s="2">
+        <v>0.22489999999999999</v>
       </c>
       <c r="C18" s="1">
         <v>2.61</v>
@@ -812,8 +632,8 @@
       <c r="A19" s="1">
         <v>2004</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
+      <c r="B19" s="2">
+        <v>0.22969999999999999</v>
       </c>
       <c r="C19" s="1">
         <v>2.66</v>
@@ -823,8 +643,8 @@
       <c r="A20" s="1">
         <v>2003</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
+      <c r="B20" s="2">
+        <v>0.23430000000000001</v>
       </c>
       <c r="C20" s="1">
         <v>2.72</v>
@@ -834,8 +654,8 @@
       <c r="A21" s="1">
         <v>2002</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
+      <c r="B21" s="2">
+        <v>0.2387</v>
       </c>
       <c r="C21" s="1">
         <v>2.77</v>
@@ -845,8 +665,8 @@
       <c r="A22" s="1">
         <v>2001</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
+      <c r="B22" s="2">
+        <v>0.2432</v>
       </c>
       <c r="C22" s="1">
         <v>2.81</v>
@@ -856,8 +676,8 @@
       <c r="A23" s="1">
         <v>2000</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
+      <c r="B23" s="2">
+        <v>0.24840000000000001</v>
       </c>
       <c r="C23" s="1">
         <v>2.86</v>
@@ -867,8 +687,8 @@
       <c r="A24" s="1">
         <v>1999</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
+      <c r="B24" s="2">
+        <v>0.25009999999999999</v>
       </c>
       <c r="C24" s="1">
         <v>2.87</v>
@@ -878,8 +698,8 @@
       <c r="A25" s="1">
         <v>1998</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
+      <c r="B25" s="2">
+        <v>0.25219999999999998</v>
       </c>
       <c r="C25" s="1">
         <v>2.87</v>
@@ -889,8 +709,8 @@
       <c r="A26" s="1">
         <v>1997</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
+      <c r="B26" s="2">
+        <v>0.26079999999999998</v>
       </c>
       <c r="C26" s="1">
         <v>2.95</v>
@@ -900,8 +720,8 @@
       <c r="A27" s="1">
         <v>1996</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
+      <c r="B27" s="2">
+        <v>0.27029999999999998</v>
       </c>
       <c r="C27" s="1">
         <v>3.04</v>
@@ -911,8 +731,8 @@
       <c r="A28" s="1">
         <v>1995</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
+      <c r="B28" s="2">
+        <v>0.27779999999999999</v>
       </c>
       <c r="C28" s="1">
         <v>3.1</v>
@@ -922,8 +742,8 @@
       <c r="A29" s="1">
         <v>1994</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
+      <c r="B29" s="2">
+        <v>0.28610000000000002</v>
       </c>
       <c r="C29" s="1">
         <v>3.16</v>
@@ -933,8 +753,8 @@
       <c r="A30" s="1">
         <v>1993</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
+      <c r="B30" s="2">
+        <v>0.29249999999999998</v>
       </c>
       <c r="C30" s="1">
         <v>3.23</v>
@@ -944,8 +764,8 @@
       <c r="A31" s="1">
         <v>1992</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
+      <c r="B31" s="2">
+        <v>0.29799999999999999</v>
       </c>
       <c r="C31" s="1">
         <v>3.29</v>
@@ -955,8 +775,8 @@
       <c r="A32" s="1">
         <v>1991</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
+      <c r="B32" s="2">
+        <v>0.30370000000000003</v>
       </c>
       <c r="C32" s="1">
         <v>3.35</v>
@@ -966,8 +786,8 @@
       <c r="A33" s="1">
         <v>1990</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>34</v>
+      <c r="B33" s="2">
+        <v>0.30890000000000001</v>
       </c>
       <c r="C33" s="1">
         <v>3.41</v>
@@ -977,8 +797,8 @@
       <c r="A34" s="1">
         <v>1989</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
+      <c r="B34" s="2">
+        <v>0.31290000000000001</v>
       </c>
       <c r="C34" s="1">
         <v>3.48</v>
@@ -988,8 +808,8 @@
       <c r="A35" s="1">
         <v>1988</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>35</v>
+      <c r="B35" s="2">
+        <v>0.31290000000000001</v>
       </c>
       <c r="C35" s="1">
         <v>3.5</v>
@@ -999,8 +819,8 @@
       <c r="A36" s="1">
         <v>1987</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>36</v>
+      <c r="B36" s="2">
+        <v>0.31330000000000002</v>
       </c>
       <c r="C36" s="1">
         <v>3.53</v>
@@ -1010,8 +830,8 @@
       <c r="A37" s="1">
         <v>1986</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>37</v>
+      <c r="B37" s="2">
+        <v>0.31619999999999998</v>
       </c>
       <c r="C37" s="1">
         <v>3.6</v>
@@ -1021,8 +841,8 @@
       <c r="A38" s="1">
         <v>1985</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>38</v>
+      <c r="B38" s="2">
+        <v>0.31969999999999998</v>
       </c>
       <c r="C38" s="1">
         <v>3.69</v>
@@ -1032,8 +852,8 @@
       <c r="A39" s="1">
         <v>1984</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>39</v>
+      <c r="B39" s="2">
+        <v>0.32619999999999999</v>
       </c>
       <c r="C39" s="1">
         <v>3.82</v>
@@ -1043,8 +863,8 @@
       <c r="A40" s="1">
         <v>1983</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>40</v>
+      <c r="B40" s="2">
+        <v>0.33090000000000003</v>
       </c>
       <c r="C40" s="1">
         <v>3.95</v>
@@ -1054,8 +874,8 @@
       <c r="A41" s="1">
         <v>1982</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>41</v>
+      <c r="B41" s="2">
+        <v>0.33179999999999998</v>
       </c>
       <c r="C41" s="1">
         <v>4.01</v>
@@ -1065,8 +885,8 @@
       <c r="A42" s="1">
         <v>1981</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>42</v>
+      <c r="B42" s="2">
+        <v>0.33650000000000002</v>
       </c>
       <c r="C42" s="1">
         <v>4.1500000000000004</v>
@@ -1076,8 +896,8 @@
       <c r="A43" s="1">
         <v>1980</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>43</v>
+      <c r="B43" s="2">
+        <v>0.34260000000000002</v>
       </c>
       <c r="C43" s="1">
         <v>4.3</v>
@@ -1087,8 +907,8 @@
       <c r="A44" s="1">
         <v>1979</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>44</v>
+      <c r="B44" s="2">
+        <v>0.3488</v>
       </c>
       <c r="C44" s="1">
         <v>4.47</v>
@@ -1098,8 +918,8 @@
       <c r="A45" s="1">
         <v>1978</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>45</v>
+      <c r="B45" s="2">
+        <v>0.35410000000000003</v>
       </c>
       <c r="C45" s="1">
         <v>4.6399999999999997</v>
@@ -1109,8 +929,8 @@
       <c r="A46" s="1">
         <v>1977</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>46</v>
+      <c r="B46" s="2">
+        <v>0.36109999999999998</v>
       </c>
       <c r="C46" s="1">
         <v>4.84</v>
@@ -1120,8 +940,8 @@
       <c r="A47" s="1">
         <v>1976</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>47</v>
+      <c r="B47" s="2">
+        <v>0.36870000000000003</v>
       </c>
       <c r="C47" s="1">
         <v>5.05</v>
@@ -1131,8 +951,8 @@
       <c r="A48" s="1">
         <v>1975</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>48</v>
+      <c r="B48" s="2">
+        <v>0.3755</v>
       </c>
       <c r="C48" s="1">
         <v>5.24</v>
@@ -1142,8 +962,8 @@
       <c r="A49" s="1">
         <v>1974</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>49</v>
+      <c r="B49" s="2">
+        <v>0.38500000000000001</v>
       </c>
       <c r="C49" s="1">
         <v>5.44</v>
@@ -1153,8 +973,8 @@
       <c r="A50" s="1">
         <v>1973</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>50</v>
+      <c r="B50" s="2">
+        <v>0.39610000000000001</v>
       </c>
       <c r="C50" s="1">
         <v>5.67</v>
@@ -1164,8 +984,8 @@
       <c r="A51" s="1">
         <v>1972</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>51</v>
+      <c r="B51" s="2">
+        <v>0.40360000000000001</v>
       </c>
       <c r="C51" s="1">
         <v>5.84</v>
@@ -1175,8 +995,8 @@
       <c r="A52" s="1">
         <v>1971</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>52</v>
+      <c r="B52" s="2">
+        <v>0.4118</v>
       </c>
       <c r="C52" s="1">
         <v>6.01</v>
@@ -1186,8 +1006,8 @@
       <c r="A53" s="1">
         <v>1970</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>53</v>
+      <c r="B53" s="2">
+        <v>0.42059999999999997</v>
       </c>
       <c r="C53" s="1">
         <v>6.18</v>
@@ -1197,8 +1017,8 @@
       <c r="A54" s="1">
         <v>1969</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>54</v>
+      <c r="B54" s="2">
+        <v>0.42920000000000003</v>
       </c>
       <c r="C54" s="1">
         <v>6.37</v>
@@ -1208,8 +1028,8 @@
       <c r="A55" s="1">
         <v>1968</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>55</v>
+      <c r="B55" s="2">
+        <v>0.43980000000000002</v>
       </c>
       <c r="C55" s="1">
         <v>6.55</v>
@@ -1219,8 +1039,8 @@
       <c r="A56" s="1">
         <v>1967</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>56</v>
+      <c r="B56" s="2">
+        <v>0.4541</v>
       </c>
       <c r="C56" s="1">
         <v>6.76</v>
@@ -1230,8 +1050,8 @@
       <c r="A57" s="1">
         <v>1966</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>57</v>
+      <c r="B57" s="2">
+        <v>0.46689999999999998</v>
       </c>
       <c r="C57" s="1">
         <v>6.95</v>
@@ -1241,8 +1061,8 @@
       <c r="A58" s="1">
         <v>1965</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>58</v>
+      <c r="B58" s="2">
+        <v>0.47439999999999999</v>
       </c>
       <c r="C58" s="1">
         <v>7.05</v>
@@ -1252,8 +1072,8 @@
       <c r="A59" s="1">
         <v>1964</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>59</v>
+      <c r="B59" s="2">
+        <v>0.48470000000000002</v>
       </c>
       <c r="C59" s="1">
         <v>7.19</v>
@@ -1263,8 +1083,8 @@
       <c r="A60" s="1">
         <v>1963</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>60</v>
+      <c r="B60" s="2">
+        <v>0.49469999999999997</v>
       </c>
       <c r="C60" s="1">
         <v>7.3</v>
@@ -1274,8 +1094,8 @@
       <c r="A61" s="1">
         <v>1962</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>61</v>
+      <c r="B61" s="2">
+        <v>0.50460000000000005</v>
       </c>
       <c r="C61" s="1">
         <v>7.4</v>
@@ -1285,8 +1105,8 @@
       <c r="A62" s="1">
         <v>1961</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>62</v>
+      <c r="B62" s="2">
+        <v>0.51390000000000002</v>
       </c>
       <c r="C62" s="1">
         <v>7.49</v>
@@ -1296,8 +1116,8 @@
       <c r="A63" s="1">
         <v>1960</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>63</v>
+      <c r="B63" s="2">
+        <v>0.52229999999999999</v>
       </c>
       <c r="C63" s="1">
         <v>7.56</v>
